--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il34-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il34-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.174594333333333</v>
+        <v>4.957220666666667</v>
       </c>
       <c r="H2">
-        <v>3.523783</v>
+        <v>14.871662</v>
       </c>
       <c r="I2">
-        <v>0.1071304476519552</v>
+        <v>0.3393483464618172</v>
       </c>
       <c r="J2">
-        <v>0.1071304476519551</v>
+        <v>0.3393483464618172</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="N2">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="O2">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="P2">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="Q2">
-        <v>0.02171276778311112</v>
+        <v>0.2447065885824445</v>
       </c>
       <c r="R2">
-        <v>0.195414910048</v>
+        <v>2.202359297242</v>
       </c>
       <c r="S2">
-        <v>0.0002930521110060747</v>
+        <v>0.01566489863005082</v>
       </c>
       <c r="T2">
-        <v>0.0002930521110060746</v>
+        <v>0.01566489863005081</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.174594333333333</v>
+        <v>4.957220666666667</v>
       </c>
       <c r="H3">
-        <v>3.523783</v>
+        <v>14.871662</v>
       </c>
       <c r="I3">
-        <v>0.1071304476519552</v>
+        <v>0.3393483464618172</v>
       </c>
       <c r="J3">
-        <v>0.1071304476519551</v>
+        <v>0.3393483464618172</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +626,22 @@
         <v>0.02585</v>
       </c>
       <c r="O3">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="P3">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="Q3">
-        <v>0.01012108783888889</v>
+        <v>0.04271471807777778</v>
       </c>
       <c r="R3">
-        <v>0.09108979055000001</v>
+        <v>0.3844324627</v>
       </c>
       <c r="S3">
-        <v>0.0001366019379238861</v>
+        <v>0.002734383788257312</v>
       </c>
       <c r="T3">
-        <v>0.0001366019379238861</v>
+        <v>0.002734383788257312</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -667,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.174594333333333</v>
+        <v>4.957220666666667</v>
       </c>
       <c r="H4">
-        <v>3.523783</v>
+        <v>14.871662</v>
       </c>
       <c r="I4">
-        <v>0.1071304476519552</v>
+        <v>0.3393483464618172</v>
       </c>
       <c r="J4">
-        <v>0.1071304476519551</v>
+        <v>0.3393483464618172</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="N4">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="O4">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="P4">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="Q4">
-        <v>7.90565727652489</v>
+        <v>5.013652014329111</v>
       </c>
       <c r="R4">
-        <v>71.150915488724</v>
+        <v>45.122868128962</v>
       </c>
       <c r="S4">
-        <v>0.1067007936030252</v>
+        <v>0.3209490640435091</v>
       </c>
       <c r="T4">
-        <v>0.1067007936030252</v>
+        <v>0.3209490640435091</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +711,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -735,40 +732,40 @@
         <v>6.496648</v>
       </c>
       <c r="I5">
-        <v>0.1975118242176602</v>
+        <v>0.1482434684398066</v>
       </c>
       <c r="J5">
-        <v>0.1975118242176602</v>
+        <v>0.1482434684398067</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="N5">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="O5">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="P5">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="Q5">
-        <v>0.04003090127644445</v>
+        <v>0.1068994554408889</v>
       </c>
       <c r="R5">
-        <v>0.360278111488</v>
+        <v>0.9620950989680001</v>
       </c>
       <c r="S5">
-        <v>0.0005402876428155176</v>
+        <v>0.006843171419248391</v>
       </c>
       <c r="T5">
-        <v>0.0005402876428155176</v>
+        <v>0.006843171419248391</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -797,10 +794,10 @@
         <v>6.496648</v>
       </c>
       <c r="I6">
-        <v>0.1975118242176602</v>
+        <v>0.1482434684398066</v>
       </c>
       <c r="J6">
-        <v>0.1975118242176602</v>
+        <v>0.1482434684398067</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,10 +812,10 @@
         <v>0.02585</v>
       </c>
       <c r="O6">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="P6">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="Q6">
         <v>0.01865981675555555</v>
@@ -827,10 +824,10 @@
         <v>0.1679383508</v>
       </c>
       <c r="S6">
-        <v>0.0002518471502953896</v>
+        <v>0.001194508654729665</v>
       </c>
       <c r="T6">
-        <v>0.0002518471502953897</v>
+        <v>0.001194508654729666</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -859,10 +856,10 @@
         <v>6.496648</v>
       </c>
       <c r="I7">
-        <v>0.1975118242176602</v>
+        <v>0.1482434684398066</v>
       </c>
       <c r="J7">
-        <v>0.1975118242176602</v>
+        <v>0.1482434684398067</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="N7">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="O7">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="P7">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="Q7">
-        <v>14.57532218477156</v>
+        <v>2.190201225094222</v>
       </c>
       <c r="R7">
-        <v>131.177899662944</v>
+        <v>19.711811025848</v>
       </c>
       <c r="S7">
-        <v>0.1967196894245493</v>
+        <v>0.1402057883658286</v>
       </c>
       <c r="T7">
-        <v>0.1967196894245493</v>
+        <v>0.1402057883658286</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +897,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,46 +912,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.094374</v>
+        <v>0.03111233333333334</v>
       </c>
       <c r="H8">
-        <v>0.283122</v>
+        <v>0.093337</v>
       </c>
       <c r="I8">
-        <v>0.008607506932213717</v>
+        <v>0.002129806111361772</v>
       </c>
       <c r="J8">
-        <v>0.008607506932213717</v>
+        <v>0.002129806111361772</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="N8">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="O8">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="P8">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="Q8">
-        <v>0.001744534848</v>
+        <v>0.001535818851888889</v>
       </c>
       <c r="R8">
-        <v>0.015700813632</v>
+        <v>0.013822369667</v>
       </c>
       <c r="S8">
-        <v>2.354557581220577E-05</v>
+        <v>9.83154837322858E-05</v>
       </c>
       <c r="T8">
-        <v>2.354557581220577E-05</v>
+        <v>9.831548373228579E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +959,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.094374</v>
+        <v>0.03111233333333334</v>
       </c>
       <c r="H9">
-        <v>0.283122</v>
+        <v>0.093337</v>
       </c>
       <c r="I9">
-        <v>0.008607506932213717</v>
+        <v>0.002129806111361772</v>
       </c>
       <c r="J9">
-        <v>0.008607506932213717</v>
+        <v>0.002129806111361772</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,22 +998,22 @@
         <v>0.02585</v>
       </c>
       <c r="O9">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="P9">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="Q9">
-        <v>0.0008131893</v>
+        <v>0.0002680846055555555</v>
       </c>
       <c r="R9">
-        <v>0.0073187037</v>
+        <v>0.00241276145</v>
       </c>
       <c r="S9">
-        <v>1.097542438591891E-05</v>
+        <v>1.71614429943723E-05</v>
       </c>
       <c r="T9">
-        <v>1.097542438591891E-05</v>
+        <v>1.71614429943723E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1021,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1039,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.094374</v>
+        <v>0.03111233333333334</v>
       </c>
       <c r="H10">
-        <v>0.283122</v>
+        <v>0.093337</v>
       </c>
       <c r="I10">
-        <v>0.008607506932213717</v>
+        <v>0.002129806111361772</v>
       </c>
       <c r="J10">
-        <v>0.008607506932213717</v>
+        <v>0.002129806111361772</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="N10">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="O10">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="P10">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="Q10">
-        <v>0.6351882336240001</v>
+        <v>0.03146650576522222</v>
       </c>
       <c r="R10">
-        <v>5.716694102616001</v>
+        <v>0.283198551887</v>
       </c>
       <c r="S10">
-        <v>0.008572985932015591</v>
+        <v>0.002014329184635114</v>
       </c>
       <c r="T10">
-        <v>0.008572985932015591</v>
+        <v>0.002014329184635114</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1083,10 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -1101,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.107609333333333</v>
+        <v>7.327472333333333</v>
       </c>
       <c r="H11">
-        <v>21.322828</v>
+        <v>21.982417</v>
       </c>
       <c r="I11">
-        <v>0.6482590184598892</v>
+        <v>0.5016047876951574</v>
       </c>
       <c r="J11">
-        <v>0.6482590184598892</v>
+        <v>0.5016047876951574</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="N11">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="O11">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="P11">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="Q11">
-        <v>0.1313865277297778</v>
+        <v>0.3617109017718889</v>
       </c>
       <c r="R11">
-        <v>1.182478749568</v>
+        <v>3.255398115947</v>
       </c>
       <c r="S11">
-        <v>0.001773293008683973</v>
+        <v>0.02315493278078171</v>
       </c>
       <c r="T11">
-        <v>0.001773293008683973</v>
+        <v>0.02315493278078171</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1145,10 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -1163,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.107609333333333</v>
+        <v>7.327472333333333</v>
       </c>
       <c r="H12">
-        <v>21.322828</v>
+        <v>21.982417</v>
       </c>
       <c r="I12">
-        <v>0.6482590184598892</v>
+        <v>0.5016047876951574</v>
       </c>
       <c r="J12">
-        <v>0.6482590184598892</v>
+        <v>0.5016047876951574</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1187,22 +1184,22 @@
         <v>0.02585</v>
       </c>
       <c r="O12">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="P12">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="Q12">
-        <v>0.06124390042222222</v>
+        <v>0.06313838660555555</v>
       </c>
       <c r="R12">
-        <v>0.5511951038</v>
+        <v>0.56824547945</v>
       </c>
       <c r="S12">
-        <v>0.0008265944942743923</v>
+        <v>0.00404180546004286</v>
       </c>
       <c r="T12">
-        <v>0.0008265944942743924</v>
+        <v>0.00404180546004286</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1207,10 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -1225,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.107609333333333</v>
+        <v>7.327472333333333</v>
       </c>
       <c r="H13">
-        <v>21.322828</v>
+        <v>21.982417</v>
       </c>
       <c r="I13">
-        <v>0.6482590184598892</v>
+        <v>0.5016047876951574</v>
       </c>
       <c r="J13">
-        <v>0.6482590184598892</v>
+        <v>0.5016047876951574</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="N13">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="O13">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="P13">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="Q13">
-        <v>47.83806787599823</v>
+        <v>7.41088583588522</v>
       </c>
       <c r="R13">
-        <v>430.5426108839841</v>
+        <v>66.69797252296699</v>
       </c>
       <c r="S13">
-        <v>0.6456591309569308</v>
+        <v>0.4744080494543328</v>
       </c>
       <c r="T13">
-        <v>0.6456591309569308</v>
+        <v>0.4744080494543328</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1269,61 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.122905</v>
+        <v>0.1267043333333333</v>
       </c>
       <c r="H14">
-        <v>0.368715</v>
+        <v>0.380113</v>
       </c>
       <c r="I14">
-        <v>0.01120971495860859</v>
+        <v>0.008673591291857003</v>
       </c>
       <c r="J14">
-        <v>0.01120971495860859</v>
+        <v>0.008673591291857003</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.01848533333333334</v>
+        <v>0.04936366666666667</v>
       </c>
       <c r="N14">
-        <v>0.05545600000000001</v>
+        <v>0.148091</v>
       </c>
       <c r="O14">
-        <v>0.002735469863414935</v>
+        <v>0.04616170608573571</v>
       </c>
       <c r="P14">
-        <v>0.002735469863414935</v>
+        <v>0.0461617060857357</v>
       </c>
       <c r="Q14">
-        <v>0.002271939893333334</v>
+        <v>0.006254590475888889</v>
       </c>
       <c r="R14">
-        <v>0.02044745904</v>
+        <v>0.056291314283</v>
       </c>
       <c r="S14">
-        <v>3.066383744674539E-05</v>
+        <v>0.0004003877719224996</v>
       </c>
       <c r="T14">
-        <v>3.066383744674539E-05</v>
+        <v>0.0004003877719224996</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1331,31 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.122905</v>
+        <v>0.1267043333333333</v>
       </c>
       <c r="H15">
-        <v>0.368715</v>
+        <v>0.380113</v>
       </c>
       <c r="I15">
-        <v>0.01120971495860859</v>
+        <v>0.008673591291857003</v>
       </c>
       <c r="J15">
-        <v>0.01120971495860859</v>
+        <v>0.008673591291857003</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1370,22 @@
         <v>0.02585</v>
       </c>
       <c r="O15">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="P15">
-        <v>0.001275099105043207</v>
+        <v>0.008057748967298944</v>
       </c>
       <c r="Q15">
-        <v>0.001059031416666667</v>
+        <v>0.001091769005555556</v>
       </c>
       <c r="R15">
-        <v>0.009531282750000002</v>
+        <v>0.00982592105</v>
       </c>
       <c r="S15">
-        <v>1.429349751151126E-05</v>
+        <v>6.988962127473388E-05</v>
       </c>
       <c r="T15">
-        <v>1.429349751151126E-05</v>
+        <v>6.988962127473388E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1393,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.122905</v>
+        <v>0.1267043333333333</v>
       </c>
       <c r="H16">
-        <v>0.368715</v>
+        <v>0.380113</v>
       </c>
       <c r="I16">
-        <v>0.01120971495860859</v>
+        <v>0.008673591291857003</v>
       </c>
       <c r="J16">
-        <v>0.01120971495860859</v>
+        <v>0.008673591291857003</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,214 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.730542666666667</v>
+        <v>1.011383666666666</v>
       </c>
       <c r="N16">
-        <v>20.191628</v>
+        <v>3.034151</v>
       </c>
       <c r="O16">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469654</v>
       </c>
       <c r="P16">
-        <v>0.9959894310315418</v>
+        <v>0.9457805449469653</v>
       </c>
       <c r="Q16">
-        <v>0.8272173464466668</v>
+        <v>0.1281466932292222</v>
       </c>
       <c r="R16">
-        <v>7.444956118020001</v>
+        <v>1.153320239063</v>
       </c>
       <c r="S16">
-        <v>0.01116475762365033</v>
+        <v>0.00820331389865977</v>
       </c>
       <c r="T16">
-        <v>0.01116475762365033</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.2991183333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.897355</v>
-      </c>
-      <c r="I17">
-        <v>0.02728148777967321</v>
-      </c>
-      <c r="J17">
-        <v>0.02728148777967321</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.01848533333333334</v>
-      </c>
-      <c r="N17">
-        <v>0.05545600000000001</v>
-      </c>
-      <c r="O17">
-        <v>0.002735469863414935</v>
-      </c>
-      <c r="P17">
-        <v>0.002735469863414935</v>
-      </c>
-      <c r="Q17">
-        <v>0.005529302097777779</v>
-      </c>
-      <c r="R17">
-        <v>0.04976371888000001</v>
-      </c>
-      <c r="S17">
-        <v>7.462768765041892E-05</v>
-      </c>
-      <c r="T17">
-        <v>7.462768765041892E-05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.2991183333333333</v>
-      </c>
-      <c r="H18">
-        <v>0.897355</v>
-      </c>
-      <c r="I18">
-        <v>0.02728148777967321</v>
-      </c>
-      <c r="J18">
-        <v>0.02728148777967321</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.008616666666666667</v>
-      </c>
-      <c r="N18">
-        <v>0.02585</v>
-      </c>
-      <c r="O18">
-        <v>0.001275099105043207</v>
-      </c>
-      <c r="P18">
-        <v>0.001275099105043207</v>
-      </c>
-      <c r="Q18">
-        <v>0.002577402972222222</v>
-      </c>
-      <c r="R18">
-        <v>0.02319662675</v>
-      </c>
-      <c r="S18">
-        <v>3.478660065210849E-05</v>
-      </c>
-      <c r="T18">
-        <v>3.47866006521085E-05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.2991183333333333</v>
-      </c>
-      <c r="H19">
-        <v>0.897355</v>
-      </c>
-      <c r="I19">
-        <v>0.02728148777967321</v>
-      </c>
-      <c r="J19">
-        <v>0.02728148777967321</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>6.730542666666667</v>
-      </c>
-      <c r="N19">
-        <v>20.191628</v>
-      </c>
-      <c r="O19">
-        <v>0.9959894310315418</v>
-      </c>
-      <c r="P19">
-        <v>0.9959894310315418</v>
-      </c>
-      <c r="Q19">
-        <v>2.013228704882222</v>
-      </c>
-      <c r="R19">
-        <v>18.11905834394</v>
-      </c>
-      <c r="S19">
-        <v>0.02717207349137069</v>
-      </c>
-      <c r="T19">
-        <v>0.02717207349137069</v>
+        <v>0.00820331389865977</v>
       </c>
     </row>
   </sheetData>
